--- a/utils/Trading_Calendar.xlsx
+++ b/utils/Trading_Calendar.xlsx
@@ -1230,7 +1230,7 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="n">
-        <v>45716</v>
+        <v>45750</v>
       </c>
     </row>
   </sheetData>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="n">
-        <v>45716</v>
+        <v>45750</v>
       </c>
     </row>
   </sheetData>
@@ -1525,7 +1525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A102"/>
+  <dimension ref="A1:A103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2042,7 +2042,12 @@
     </row>
     <row r="102">
       <c r="A102" s="6" t="n">
-        <v>45716</v>
+        <v>45747</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="6" t="n">
+        <v>45750</v>
       </c>
     </row>
   </sheetData>
@@ -2056,7 +2061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A303"/>
+  <dimension ref="A1:A305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3581,6 +3586,16 @@
         <v>45716</v>
       </c>
     </row>
+    <row r="304">
+      <c r="A304" s="6" t="n">
+        <v>45747</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="6" t="n">
+        <v>45750</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3592,7 +3607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1274"/>
+  <dimension ref="A1:A1279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9972,6 +9987,31 @@
         <v>45716</v>
       </c>
     </row>
+    <row r="1275">
+      <c r="A1275" s="6" t="n">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="6" t="n">
+        <v>45730</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="6" t="n">
+        <v>45737</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="6" t="n">
+        <v>45744</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="6" t="n">
+        <v>45750</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9983,7 +10023,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6095"/>
+  <dimension ref="A1:A6119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40468,6 +40508,126 @@
         <v>45716</v>
       </c>
     </row>
+    <row r="6096">
+      <c r="A6096" s="6" t="n">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="6097">
+      <c r="A6097" s="6" t="n">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="6098">
+      <c r="A6098" s="6" t="n">
+        <v>45721</v>
+      </c>
+    </row>
+    <row r="6099">
+      <c r="A6099" s="6" t="n">
+        <v>45722</v>
+      </c>
+    </row>
+    <row r="6100">
+      <c r="A6100" s="6" t="n">
+        <v>45723</v>
+      </c>
+    </row>
+    <row r="6101">
+      <c r="A6101" s="6" t="n">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="6102">
+      <c r="A6102" s="6" t="n">
+        <v>45727</v>
+      </c>
+    </row>
+    <row r="6103">
+      <c r="A6103" s="6" t="n">
+        <v>45728</v>
+      </c>
+    </row>
+    <row r="6104">
+      <c r="A6104" s="6" t="n">
+        <v>45729</v>
+      </c>
+    </row>
+    <row r="6105">
+      <c r="A6105" s="6" t="n">
+        <v>45730</v>
+      </c>
+    </row>
+    <row r="6106">
+      <c r="A6106" s="6" t="n">
+        <v>45733</v>
+      </c>
+    </row>
+    <row r="6107">
+      <c r="A6107" s="6" t="n">
+        <v>45734</v>
+      </c>
+    </row>
+    <row r="6108">
+      <c r="A6108" s="6" t="n">
+        <v>45735</v>
+      </c>
+    </row>
+    <row r="6109">
+      <c r="A6109" s="6" t="n">
+        <v>45736</v>
+      </c>
+    </row>
+    <row r="6110">
+      <c r="A6110" s="6" t="n">
+        <v>45737</v>
+      </c>
+    </row>
+    <row r="6111">
+      <c r="A6111" s="6" t="n">
+        <v>45740</v>
+      </c>
+    </row>
+    <row r="6112">
+      <c r="A6112" s="6" t="n">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="6113">
+      <c r="A6113" s="6" t="n">
+        <v>45742</v>
+      </c>
+    </row>
+    <row r="6114">
+      <c r="A6114" s="6" t="n">
+        <v>45743</v>
+      </c>
+    </row>
+    <row r="6115">
+      <c r="A6115" s="6" t="n">
+        <v>45744</v>
+      </c>
+    </row>
+    <row r="6116">
+      <c r="A6116" s="6" t="n">
+        <v>45747</v>
+      </c>
+    </row>
+    <row r="6117">
+      <c r="A6117" s="6" t="n">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="6118">
+      <c r="A6118" s="6" t="n">
+        <v>45749</v>
+      </c>
+    </row>
+    <row r="6119">
+      <c r="A6119" s="6" t="n">
+        <v>45750</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/utils/Trading_Calendar.xlsx
+++ b/utils/Trading_Calendar.xlsx
@@ -1230,7 +1230,7 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="n">
-        <v>45750</v>
+        <v>45758</v>
       </c>
     </row>
   </sheetData>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="n">
-        <v>45750</v>
+        <v>45758</v>
       </c>
     </row>
   </sheetData>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="103">
       <c r="A103" s="6" t="n">
-        <v>45750</v>
+        <v>45758</v>
       </c>
     </row>
   </sheetData>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="305">
       <c r="A305" s="6" t="n">
-        <v>45750</v>
+        <v>45758</v>
       </c>
     </row>
   </sheetData>
@@ -3607,7 +3607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1279"/>
+  <dimension ref="A1:A1280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10012,6 +10012,11 @@
         <v>45750</v>
       </c>
     </row>
+    <row r="1280">
+      <c r="A1280" s="6" t="n">
+        <v>45758</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10023,7 +10028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6119"/>
+  <dimension ref="A1:A6124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40628,6 +40633,31 @@
         <v>45750</v>
       </c>
     </row>
+    <row r="6120">
+      <c r="A6120" s="6" t="n">
+        <v>45754</v>
+      </c>
+    </row>
+    <row r="6121">
+      <c r="A6121" s="6" t="n">
+        <v>45755</v>
+      </c>
+    </row>
+    <row r="6122">
+      <c r="A6122" s="6" t="n">
+        <v>45756</v>
+      </c>
+    </row>
+    <row r="6123">
+      <c r="A6123" s="6" t="n">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="6124">
+      <c r="A6124" s="6" t="n">
+        <v>45758</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/utils/Trading_Calendar.xlsx
+++ b/utils/Trading_Calendar.xlsx
@@ -1230,7 +1230,7 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="n">
-        <v>45758</v>
+        <v>45783</v>
       </c>
     </row>
   </sheetData>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="n">
-        <v>45758</v>
+        <v>45783</v>
       </c>
     </row>
   </sheetData>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="103">
       <c r="A103" s="6" t="n">
-        <v>45758</v>
+        <v>45783</v>
       </c>
     </row>
   </sheetData>
@@ -2061,7 +2061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A305"/>
+  <dimension ref="A1:A306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3593,7 +3593,12 @@
     </row>
     <row r="305">
       <c r="A305" s="6" t="n">
-        <v>45758</v>
+        <v>45777</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="6" t="n">
+        <v>45783</v>
       </c>
     </row>
   </sheetData>
@@ -3607,7 +3612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1280"/>
+  <dimension ref="A1:A1284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10017,6 +10022,26 @@
         <v>45758</v>
       </c>
     </row>
+    <row r="1281">
+      <c r="A1281" s="6" t="n">
+        <v>45765</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="6" t="n">
+        <v>45772</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="6" t="n">
+        <v>45777</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="6" t="n">
+        <v>45783</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10028,7 +10053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6124"/>
+  <dimension ref="A1:A6138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40658,6 +40683,76 @@
         <v>45758</v>
       </c>
     </row>
+    <row r="6125">
+      <c r="A6125" s="6" t="n">
+        <v>45761</v>
+      </c>
+    </row>
+    <row r="6126">
+      <c r="A6126" s="6" t="n">
+        <v>45762</v>
+      </c>
+    </row>
+    <row r="6127">
+      <c r="A6127" s="6" t="n">
+        <v>45763</v>
+      </c>
+    </row>
+    <row r="6128">
+      <c r="A6128" s="6" t="n">
+        <v>45764</v>
+      </c>
+    </row>
+    <row r="6129">
+      <c r="A6129" s="6" t="n">
+        <v>45765</v>
+      </c>
+    </row>
+    <row r="6130">
+      <c r="A6130" s="6" t="n">
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="6131">
+      <c r="A6131" s="6" t="n">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="6132">
+      <c r="A6132" s="6" t="n">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="6133">
+      <c r="A6133" s="6" t="n">
+        <v>45771</v>
+      </c>
+    </row>
+    <row r="6134">
+      <c r="A6134" s="6" t="n">
+        <v>45772</v>
+      </c>
+    </row>
+    <row r="6135">
+      <c r="A6135" s="6" t="n">
+        <v>45775</v>
+      </c>
+    </row>
+    <row r="6136">
+      <c r="A6136" s="6" t="n">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="6137">
+      <c r="A6137" s="6" t="n">
+        <v>45777</v>
+      </c>
+    </row>
+    <row r="6138">
+      <c r="A6138" s="6" t="n">
+        <v>45783</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/utils/Trading_Calendar.xlsx
+++ b/utils/Trading_Calendar.xlsx
@@ -1230,7 +1230,7 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="n">
-        <v>45783</v>
+        <v>45786</v>
       </c>
     </row>
   </sheetData>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="n">
-        <v>45783</v>
+        <v>45786</v>
       </c>
     </row>
   </sheetData>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="103">
       <c r="A103" s="6" t="n">
-        <v>45783</v>
+        <v>45786</v>
       </c>
     </row>
   </sheetData>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="306">
       <c r="A306" s="6" t="n">
-        <v>45783</v>
+        <v>45786</v>
       </c>
     </row>
   </sheetData>
@@ -10039,7 +10039,7 @@
     </row>
     <row r="1284">
       <c r="A1284" s="6" t="n">
-        <v>45783</v>
+        <v>45786</v>
       </c>
     </row>
   </sheetData>
@@ -10053,7 +10053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6138"/>
+  <dimension ref="A1:A6141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40753,6 +40753,21 @@
         <v>45783</v>
       </c>
     </row>
+    <row r="6139">
+      <c r="A6139" s="6" t="n">
+        <v>45784</v>
+      </c>
+    </row>
+    <row r="6140">
+      <c r="A6140" s="6" t="n">
+        <v>45785</v>
+      </c>
+    </row>
+    <row r="6141">
+      <c r="A6141" s="6" t="n">
+        <v>45786</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/utils/Trading_Calendar.xlsx
+++ b/utils/Trading_Calendar.xlsx
@@ -1230,7 +1230,7 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="n">
-        <v>45786</v>
+        <v>45793</v>
       </c>
     </row>
   </sheetData>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="n">
-        <v>45786</v>
+        <v>45793</v>
       </c>
     </row>
   </sheetData>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="103">
       <c r="A103" s="6" t="n">
-        <v>45786</v>
+        <v>45793</v>
       </c>
     </row>
   </sheetData>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="306">
       <c r="A306" s="6" t="n">
-        <v>45786</v>
+        <v>45793</v>
       </c>
     </row>
   </sheetData>
@@ -3612,7 +3612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1284"/>
+  <dimension ref="A1:A1285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10042,6 +10042,11 @@
         <v>45786</v>
       </c>
     </row>
+    <row r="1285">
+      <c r="A1285" s="6" t="n">
+        <v>45793</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10053,7 +10058,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6141"/>
+  <dimension ref="A1:A6146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40768,6 +40773,31 @@
         <v>45786</v>
       </c>
     </row>
+    <row r="6142">
+      <c r="A6142" s="6" t="n">
+        <v>45789</v>
+      </c>
+    </row>
+    <row r="6143">
+      <c r="A6143" s="6" t="n">
+        <v>45790</v>
+      </c>
+    </row>
+    <row r="6144">
+      <c r="A6144" s="6" t="n">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="6145">
+      <c r="A6145" s="6" t="n">
+        <v>45792</v>
+      </c>
+    </row>
+    <row r="6146">
+      <c r="A6146" s="6" t="n">
+        <v>45793</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/utils/Trading_Calendar.xlsx
+++ b/utils/Trading_Calendar.xlsx
@@ -1230,7 +1230,7 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="n">
-        <v>45793</v>
+        <v>45800</v>
       </c>
     </row>
   </sheetData>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="n">
-        <v>45793</v>
+        <v>45800</v>
       </c>
     </row>
   </sheetData>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="103">
       <c r="A103" s="6" t="n">
-        <v>45793</v>
+        <v>45800</v>
       </c>
     </row>
   </sheetData>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="306">
       <c r="A306" s="6" t="n">
-        <v>45793</v>
+        <v>45800</v>
       </c>
     </row>
   </sheetData>
@@ -3612,7 +3612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1285"/>
+  <dimension ref="A1:A1286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10047,6 +10047,11 @@
         <v>45793</v>
       </c>
     </row>
+    <row r="1286">
+      <c r="A1286" s="6" t="n">
+        <v>45800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10058,7 +10063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6146"/>
+  <dimension ref="A1:A6151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40798,6 +40803,31 @@
         <v>45793</v>
       </c>
     </row>
+    <row r="6147">
+      <c r="A6147" s="6" t="n">
+        <v>45796</v>
+      </c>
+    </row>
+    <row r="6148">
+      <c r="A6148" s="6" t="n">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="6149">
+      <c r="A6149" s="6" t="n">
+        <v>45798</v>
+      </c>
+    </row>
+    <row r="6150">
+      <c r="A6150" s="6" t="n">
+        <v>45799</v>
+      </c>
+    </row>
+    <row r="6151">
+      <c r="A6151" s="6" t="n">
+        <v>45800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/utils/Trading_Calendar.xlsx
+++ b/utils/Trading_Calendar.xlsx
@@ -1230,7 +1230,7 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="n">
-        <v>45800</v>
+        <v>45807</v>
       </c>
     </row>
   </sheetData>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="n">
-        <v>45800</v>
+        <v>45807</v>
       </c>
     </row>
   </sheetData>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="103">
       <c r="A103" s="6" t="n">
-        <v>45800</v>
+        <v>45807</v>
       </c>
     </row>
   </sheetData>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="306">
       <c r="A306" s="6" t="n">
-        <v>45800</v>
+        <v>45807</v>
       </c>
     </row>
   </sheetData>
@@ -3612,7 +3612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1286"/>
+  <dimension ref="A1:A1287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10052,6 +10052,11 @@
         <v>45800</v>
       </c>
     </row>
+    <row r="1287">
+      <c r="A1287" s="6" t="n">
+        <v>45807</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10063,7 +10068,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6151"/>
+  <dimension ref="A1:A6156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40828,6 +40833,31 @@
         <v>45800</v>
       </c>
     </row>
+    <row r="6152">
+      <c r="A6152" s="6" t="n">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="6153">
+      <c r="A6153" s="6" t="n">
+        <v>45804</v>
+      </c>
+    </row>
+    <row r="6154">
+      <c r="A6154" s="6" t="n">
+        <v>45805</v>
+      </c>
+    </row>
+    <row r="6155">
+      <c r="A6155" s="6" t="n">
+        <v>45806</v>
+      </c>
+    </row>
+    <row r="6156">
+      <c r="A6156" s="6" t="n">
+        <v>45807</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/utils/Trading_Calendar.xlsx
+++ b/utils/Trading_Calendar.xlsx
@@ -1230,7 +1230,7 @@
     </row>
     <row r="27">
       <c r="A27" s="6" t="n">
-        <v>45807</v>
+        <v>45814</v>
       </c>
     </row>
   </sheetData>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="n">
-        <v>45807</v>
+        <v>45814</v>
       </c>
     </row>
   </sheetData>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="103">
       <c r="A103" s="6" t="n">
-        <v>45807</v>
+        <v>45814</v>
       </c>
     </row>
   </sheetData>
@@ -2061,7 +2061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A306"/>
+  <dimension ref="A1:A307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3601,6 +3601,11 @@
         <v>45807</v>
       </c>
     </row>
+    <row r="307">
+      <c r="A307" s="6" t="n">
+        <v>45814</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3612,7 +3617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1287"/>
+  <dimension ref="A1:A1288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10057,6 +10062,11 @@
         <v>45807</v>
       </c>
     </row>
+    <row r="1288">
+      <c r="A1288" s="6" t="n">
+        <v>45814</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10068,7 +10078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6156"/>
+  <dimension ref="A1:A6160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40858,6 +40868,26 @@
         <v>45807</v>
       </c>
     </row>
+    <row r="6157">
+      <c r="A6157" s="6" t="n">
+        <v>45811</v>
+      </c>
+    </row>
+    <row r="6158">
+      <c r="A6158" s="6" t="n">
+        <v>45812</v>
+      </c>
+    </row>
+    <row r="6159">
+      <c r="A6159" s="6" t="n">
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="6160">
+      <c r="A6160" s="6" t="n">
+        <v>45814</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
